--- a/FPL.xlsx
+++ b/FPL.xlsx
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1259,10 +1259,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -1364,10 +1364,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
